--- a/excel/finished/能介/能源环保部二空压站设备日点检表.xlsx
+++ b/excel/finished/能介/能源环保部二空压站设备日点检表.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
-    <sheet name="空压站点检表" sheetId="3" r:id="rId2"/>
+    <sheet name="_Template" sheetId="3" r:id="rId2"/>
     <sheet name="_metadata" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -512,52 +512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -569,9 +524,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -586,14 +592,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -607,40 +632,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -660,7 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +672,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,37 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,37 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,6 +1119,15 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1147,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -1157,40 +1210,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,171 +1229,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3252,7 +3252,7 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="V3:V4"/>
   </mergeCells>
-  <pageMargins left="0.314583333333333" right="0.196527777777778" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.313888888888889" right="0.196527777777778" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
